--- a/Lab2-Odometry/Report/Lab 2 Report.xlsx
+++ b/Lab2-Odometry/Report/Lab 2 Report.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jlat\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,7 +376,7 @@
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,8 +431,20 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
       <c r="F4">
         <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
@@ -455,30 +463,42 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>-0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="J5" t="e">
+      <c r="J5">
         <f>_xlfn.STDEV.P(C4:C13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" t="e">
+        <v>0.17888543819998318</v>
+      </c>
+      <c r="K5">
         <f>_xlfn.STDEV.P(D4:D13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
+        <v>0.261725046566048</v>
+      </c>
+      <c r="L5">
         <f>_xlfn.STDEV.P(G4:G13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <f>_xlfn.STDEV.P(H4:H13)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>-0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
       <c r="F6">
         <v>3</v>
       </c>
@@ -487,6 +507,12 @@
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>-0.1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>4</v>
       </c>
@@ -495,6 +521,12 @@
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>5</v>
       </c>
@@ -503,6 +535,12 @@
       <c r="B9">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-0.1</v>
+      </c>
       <c r="F9">
         <v>6</v>
       </c>
@@ -511,6 +549,12 @@
       <c r="B10">
         <v>7</v>
       </c>
+      <c r="C10">
+        <v>-0.2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="F10">
         <v>7</v>
       </c>
@@ -519,6 +563,12 @@
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
       <c r="F11">
         <v>8</v>
       </c>
@@ -527,6 +577,12 @@
       <c r="B12">
         <v>9</v>
       </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>-0.3</v>
+      </c>
       <c r="F12">
         <v>9</v>
       </c>
@@ -534,6 +590,12 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
+      </c>
+      <c r="C13">
+        <v>-0.1</v>
+      </c>
+      <c r="D13">
+        <v>-0.3</v>
       </c>
       <c r="F13">
         <v>10</v>

--- a/Lab2-Odometry/Report/Lab 2 Report.xlsx
+++ b/Lab2-Odometry/Report/Lab 2 Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="2445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
         <v>0.1</v>
@@ -474,11 +474,11 @@
       </c>
       <c r="J5">
         <f>_xlfn.STDEV.P(C4:C13)</f>
-        <v>0.17888543819998318</v>
+        <v>0.21470910553583888</v>
       </c>
       <c r="K5">
         <f>_xlfn.STDEV.P(D4:D13)</f>
-        <v>0.261725046566048</v>
+        <v>0.28354893757515653</v>
       </c>
       <c r="L5">
         <f>_xlfn.STDEV.P(G4:G13)</f>
@@ -511,7 +511,7 @@
         <v>-0.1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -525,7 +525,7 @@
         <v>0.1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F8">
         <v>5</v>

--- a/Lab2-Odometry/Report/Lab 2 Report.xlsx
+++ b/Lab2-Odometry/Report/Lab 2 Report.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jlat\Documents\School\DPMLabs\Lab2-Odometry\Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="4440"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Delta X</t>
   </si>
@@ -50,6 +54,18 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>ev3</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -373,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M13"/>
+  <dimension ref="B2:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -398,8 +414,14 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -426,8 +448,20 @@
         <v>5</v>
       </c>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -441,10 +475,12 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f>P4-R4</f>
+        <v>-0.36999999999999988</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f>Q4-S4</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
@@ -458,8 +494,23 @@
       <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>-1.17</v>
+      </c>
+      <c r="Q4">
+        <v>-1.05</v>
+      </c>
+      <c r="R4">
+        <v>-0.8</v>
+      </c>
+      <c r="S4">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -471,6 +522,14 @@
       </c>
       <c r="F5">
         <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G13" si="0">P5-R5</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H13" si="1">Q5-S5</f>
+        <v>-0.12999999999999989</v>
       </c>
       <c r="J5">
         <f>_xlfn.STDEV.P(C4:C13)</f>
@@ -482,14 +541,29 @@
       </c>
       <c r="L5">
         <f>_xlfn.STDEV.P(G4:G13)</f>
-        <v>0</v>
+        <v>0.16194134740701641</v>
       </c>
       <c r="M5">
         <f>_xlfn.STDEV.P(H4:H13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1.9336351775865064</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0.09</v>
+      </c>
+      <c r="Q5">
+        <v>-1.23</v>
+      </c>
+      <c r="R5">
+        <v>-0.2</v>
+      </c>
+      <c r="S5">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -502,8 +576,31 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1.38</v>
+      </c>
+      <c r="Q6">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="R6">
+        <v>1.4</v>
+      </c>
+      <c r="S6">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -516,8 +613,31 @@
       <c r="F7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-0.1100000000000001</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>0.89</v>
+      </c>
+      <c r="Q7">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -530,8 +650,31 @@
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.7399999999999998</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>0.86</v>
+      </c>
+      <c r="Q8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.9</v>
+      </c>
+      <c r="S8">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -544,8 +687,31 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-0.13</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-1.43</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>0.37</v>
+      </c>
+      <c r="Q9">
+        <v>-2.13</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -558,8 +724,31 @@
       <c r="F10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>0.54</v>
+      </c>
+      <c r="Q10">
+        <v>-1.6</v>
+      </c>
+      <c r="R10">
+        <v>0.6</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -572,8 +761,31 @@
       <c r="F11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>5.84</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>-4.66</v>
+      </c>
+      <c r="Q11">
+        <v>3.24</v>
+      </c>
+      <c r="R11">
+        <v>-4.5</v>
+      </c>
+      <c r="S11">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -586,8 +798,31 @@
       <c r="F12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000462E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>4.38</v>
+      </c>
+      <c r="Q12">
+        <v>6.16</v>
+      </c>
+      <c r="R12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S12">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
@@ -599,6 +834,29 @@
       </c>
       <c r="F13">
         <v>10</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-0.22999999999999954</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-0.58999999999999986</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>4.07</v>
+      </c>
+      <c r="Q13">
+        <v>3.51</v>
+      </c>
+      <c r="R13">
+        <v>4.3</v>
+      </c>
+      <c r="S13">
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
